--- a/RealProject/src/main/webapp/WEB-INF/excel/member.xlsx
+++ b/RealProject/src/main/webapp/WEB-INF/excel/member.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15015" windowHeight="2835"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="13665" windowHeight="11910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
   <si>
     <t>&lt;jx:forEach var="item" items="${list}" varStatus="status"&gt;</t>
   </si>
@@ -71,35 +67,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>${item.member_no}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.birthday}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.email}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.phone}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${item.rank}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.member_no}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.gender}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.birthday}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.email}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.phone}</t>
+  </si>
+  <si>
+    <t>결혼기념일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.weddingdate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회원 목록 정보 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/jx:if&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:if test="${item.gender==1 &amp;&amp; item.weddingdate.toString().substring(0,5).contains('9999')}" &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:if test="${item.gender==1 &amp;&amp; !item.weddingdate.toString().substring(0,5).contains('9999')}" &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:if test="${item.gender !=1 &amp;&amp; item.weddingdate.toString().substring(0,5).contains('9999')}" &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:if test="${item.gender !=1 &amp;&amp; !item.weddingdate.toString().substring(0,5).contains('9999')}" &gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,8 +185,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -444,95 +507,303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="E4:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.125" customWidth="1"/>
+    <col min="6" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="14.75" customWidth="1"/>
+    <col min="10" max="10" width="7.625" customWidth="1"/>
+    <col min="11" max="11" width="5.625" customWidth="1"/>
+    <col min="12" max="12" width="11.125" customWidth="1"/>
+    <col min="13" max="13" width="11.375" customWidth="1"/>
+    <col min="14" max="14" width="21" customWidth="1"/>
+    <col min="15" max="15" width="14.375" customWidth="1"/>
+    <col min="17" max="17" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
+    <row r="4" spans="5:15">
+      <c r="F4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="7" spans="5:15">
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
+      <c r="E8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="5:15">
+      <c r="E9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="5:15">
+      <c r="E10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="H10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15">
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="5:15">
+      <c r="E12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="5:15">
+      <c r="E13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="5:15">
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="5:15">
+      <c r="E15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="5:15">
+      <c r="E16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15">
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="5:15">
+      <c r="E18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="5:15">
+      <c r="E19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15">
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15">
+      <c r="E21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
+    <row r="22" spans="5:15">
+      <c r="E22" s="4"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="24" spans="5:15">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="5:15">
+      <c r="L25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="5:15">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F4:N4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
